--- a/Reports/ZacksRank/TanzyToInvest.xlsx
+++ b/Reports/ZacksRank/TanzyToInvest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="152">
   <si>
     <t>ETSY</t>
   </si>
@@ -401,6 +401,81 @@
   </si>
   <si>
     <t>Hold       ($23.52)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Buy        ($42.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.95)</t>
+  </si>
+  <si>
+    <t>UN         ($0.34)</t>
+  </si>
+  <si>
+    <t>Buy        ($37.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.02)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Buy        ($43.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.60)</t>
+  </si>
+  <si>
+    <t>UN         ($0.33)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.23)</t>
+  </si>
+  <si>
+    <t>Buy        ($6.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.95)</t>
   </si>
 </sst>
 </file>
@@ -461,8 +536,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -799,73 +874,85 @@
     <col min="13" max="13" customWidth="true" width="16.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -874,63 +961,72 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -939,45 +1035,54 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -986,42 +1091,51 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1030,42 +1144,51 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1074,39 +1197,48 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1115,39 +1247,48 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1156,27 +1297,36 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1185,15 +1335,24 @@
         <v>81</v>
       </c>
       <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1202,60 +1361,69 @@
         <v>82</v>
       </c>
       <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="R10" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="S10" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="T10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="U10" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="V10" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="W10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1264,24 +1432,33 @@
         <v>96</v>
       </c>
       <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1289,10 +1466,19 @@
       <c r="A12" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1300,10 +1486,19 @@
       <c r="A13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyToInvest.xlsx
+++ b/Reports/ZacksRank/TanzyToInvest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FE5A60E5-3478-264D-9E91-28CD44A1A555}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr documentId="13_ncr:1_{398B7B4D-492A-A445-8A2A-C8771E299D66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView windowHeight="19700" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="data" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
   <si>
     <t>ETSY</t>
   </si>
@@ -97,9 +97,6 @@
     <t>TNDM</t>
   </si>
   <si>
-    <t>SNAP</t>
-  </si>
-  <si>
     <t>May_31</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Hold       ($14.25)</t>
   </si>
   <si>
-    <t>Hold       ($10.97)</t>
-  </si>
-  <si>
     <t>Buy        ($32.34)</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>Hold       ($14.03)</t>
   </si>
   <si>
-    <t>Hold       ($11.37)</t>
-  </si>
-  <si>
     <t>May_30</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
     <t>Hold       ($14.43)</t>
   </si>
   <si>
-    <t>Hold       ($11.62)</t>
-  </si>
-  <si>
     <t>Jun_03</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>Hold       ($15.21)</t>
   </si>
   <si>
-    <t>Hold       ($12.32)</t>
-  </si>
-  <si>
     <t>Hold       ($23.45)</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>Hold       ($15.39)</t>
   </si>
   <si>
-    <t>Hold       ($12.93)</t>
-  </si>
-  <si>
     <t>Hold       ($24.50)</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>Hold       ($15.98)</t>
   </si>
   <si>
-    <t>Hold       ($13.12)</t>
-  </si>
-  <si>
     <t>Hold       ($25.65)</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>Hold       ($15.64)</t>
   </si>
   <si>
-    <t>Hold       ($12.73)</t>
-  </si>
-  <si>
     <t>Hold       ($31.95)</t>
   </si>
   <si>
@@ -310,21 +286,6 @@
     <t>Buy</t>
   </si>
   <si>
-    <t>PSEC</t>
-  </si>
-  <si>
-    <t>Buy        ($6.87)</t>
-  </si>
-  <si>
-    <t>Buy        ($6.85)</t>
-  </si>
-  <si>
-    <t>Buy        ($6.82)</t>
-  </si>
-  <si>
-    <t>Buy        ($6.84)</t>
-  </si>
-  <si>
     <t>Jun_09</t>
   </si>
   <si>
@@ -340,9 +301,6 @@
     <t>Hold       ($74.95)</t>
   </si>
   <si>
-    <t>Hold       ($13.10)</t>
-  </si>
-  <si>
     <t>Hold       ($34.40)</t>
   </si>
   <si>
@@ -352,130 +310,223 @@
     <t>Buy        ($39.21)</t>
   </si>
   <si>
-    <t>Buy        ($6.89)</t>
-  </si>
-  <si>
     <t>Jun_10</t>
   </si>
   <si>
-    <t>GLAD</t>
-  </si>
-  <si>
     <t>HCP</t>
   </si>
   <si>
+    <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Buy        ($32.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.15)</t>
+  </si>
+  <si>
+    <t>UN         ($0.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.52)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Buy        ($42.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.95)</t>
+  </si>
+  <si>
+    <t>UN         ($0.34)</t>
+  </si>
+  <si>
+    <t>Buy        ($37.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.02)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_19</t>
+  </si>
+  <si>
+    <t>Buy        ($43.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.70)</t>
+  </si>
+  <si>
+    <t>UN         ($0.33)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.00)</t>
+  </si>
+  <si>
+    <t>Jun_20</t>
+  </si>
+  <si>
+    <t>Buy        ($44.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.25)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.01)</t>
+  </si>
+  <si>
+    <t>Jun_21</t>
+  </si>
+  <si>
+    <t>Buy        ($43.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.90)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.62)</t>
+  </si>
+  <si>
+    <t>Jun_22</t>
+  </si>
+  <si>
+    <t>Buy        ($43.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($72.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($39.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.50)</t>
+  </si>
+  <si>
+    <t>UN         ($0.32)</t>
+  </si>
+  <si>
+    <t>Buy        ($37.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.13)</t>
+  </si>
+  <si>
+    <t>INCY</t>
+  </si>
+  <si>
+    <t>Buy       ($66)</t>
+  </si>
+  <si>
+    <t>Sell     ($23.64)</t>
+  </si>
+  <si>
+    <t>Jun_25</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jun_13</t>
-  </si>
-  <si>
-    <t>Buy        ($32.99)</t>
-  </si>
-  <si>
-    <t>Hold       ($28.20)</t>
-  </si>
-  <si>
-    <t>Hold       ($10.00)</t>
-  </si>
-  <si>
-    <t>Hold       ($77.85)</t>
-  </si>
-  <si>
-    <t>Hold       ($17.76)</t>
-  </si>
-  <si>
-    <t>Hold       ($13.62)</t>
-  </si>
-  <si>
-    <t>Hold       ($36.15)</t>
-  </si>
-  <si>
-    <t>UN         ($0.36)</t>
-  </si>
-  <si>
-    <t>Buy        ($36.21)</t>
-  </si>
-  <si>
-    <t>Hold       ($9.18)</t>
-  </si>
-  <si>
-    <t>Hold       ($23.52)</t>
-  </si>
-  <si>
-    <t>Jun_15</t>
-  </si>
-  <si>
-    <t>Buy        ($42.54)</t>
-  </si>
-  <si>
-    <t>Hold       ($28.91)</t>
-  </si>
-  <si>
-    <t>Hold       ($10.15)</t>
-  </si>
-  <si>
-    <t>Hold       ($78.45)</t>
-  </si>
-  <si>
-    <t>Hold       ($19.91)</t>
-  </si>
-  <si>
-    <t>Hold       ($14.05)</t>
-  </si>
-  <si>
-    <t>Hold       ($34.95)</t>
-  </si>
-  <si>
-    <t>UN         ($0.34)</t>
-  </si>
-  <si>
-    <t>Buy        ($37.50)</t>
-  </si>
-  <si>
-    <t>Buy        ($6.90)</t>
-  </si>
-  <si>
-    <t>Hold       ($9.23)</t>
-  </si>
-  <si>
-    <t>Hold       ($24.02)</t>
-  </si>
-  <si>
-    <t>Jun_17</t>
-  </si>
-  <si>
-    <t>Jun_18</t>
-  </si>
-  <si>
-    <t>Buy        ($43.82)</t>
-  </si>
-  <si>
-    <t>Hold       ($27.83)</t>
-  </si>
-  <si>
-    <t>Hold       ($10.17)</t>
-  </si>
-  <si>
-    <t>Hold       ($80.40)</t>
-  </si>
-  <si>
-    <t>Hold       ($19.64)</t>
-  </si>
-  <si>
-    <t>Hold       ($35.60)</t>
-  </si>
-  <si>
-    <t>UN         ($0.33)</t>
-  </si>
-  <si>
-    <t>Buy        ($39.23)</t>
-  </si>
-  <si>
-    <t>Buy        ($6.91)</t>
-  </si>
-  <si>
-    <t>Hold       ($23.95)</t>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($23.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.73)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,13 +561,33 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="49"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,12 +603,67 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -852,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,629 +1003,687 @@
     <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="16.0" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="P1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>102</v>
+      <c r="B2" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="P2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>103</v>
+      <c r="B3" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="P3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>104</v>
+      <c r="B4" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="P4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>105</v>
+      <c r="B5" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="B6" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>6</v>
+      <c r="Q9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>6</v>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>6</v>
+        <v>161</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/ZacksRank/TanzyToInvest.xlsx
+++ b/Reports/ZacksRank/TanzyToInvest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{398B7B4D-492A-A445-8A2A-C8771E299D66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2A68826B-7E83-0C4A-B48D-626FEF9DF880}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
     <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="179">
   <si>
     <t>ETSY</t>
   </si>
@@ -508,25 +508,55 @@
     <t>INCY</t>
   </si>
   <si>
-    <t>Buy       ($66)</t>
-  </si>
-  <si>
     <t>Sell     ($23.64)</t>
   </si>
   <si>
     <t>Jun_25</t>
   </si>
   <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($23.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.73)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jun_26</t>
-  </si>
-  <si>
-    <t>Hold       ($23.64)</t>
-  </si>
-  <si>
-    <t>Hold       ($66.73)</t>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Buy        ($40.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.45)</t>
+  </si>
+  <si>
+    <t>UN         ($0.31)</t>
+  </si>
+  <si>
+    <t>Buy        ($35.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.46)</t>
   </si>
 </sst>
 </file>
@@ -543,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,32 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="45"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
       </patternFill>
     </fill>
   </fills>
@@ -603,67 +608,75 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -978,16 +991,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
@@ -1008,429 +1021,445 @@
     <col min="21" max="21" customWidth="true" width="16.0" collapsed="true"/>
     <col min="22" max="22" customWidth="true" width="16.0" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
     <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="26" max="26" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>164</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="W1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="X1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AD1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>109</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="L2" s="0" t="s">
         <v>89</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="S2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="W2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="X2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>5</v>
       </c>
       <c r="AA2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="AD2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>110</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>90</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="R3" s="0" t="s">
         <v>39</v>
       </c>
       <c r="S3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="X3" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>111</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>111</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="L4" s="0" t="s">
         <v>91</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="S4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>112</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>92</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="Q5" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="R5" s="0" t="s">
         <v>40</v>
       </c>
       <c r="S5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="U5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="W5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>113</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>71</v>
@@ -1439,252 +1468,268 @@
         <v>71</v>
       </c>
       <c r="N6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="Q6" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="R6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="S6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>114</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="M7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>94</v>
       </c>
       <c r="M8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="Q9" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="R9" s="0" t="s">
         <v>79</v>
       </c>
       <c r="S9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="U9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="V9" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="W9" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="X9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="Y9" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="Y9" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="Z9" s="0" t="s">
         <v>86</v>
       </c>
       <c r="AA9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AB9" s="0" t="s">
+      <c r="AC9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>162</v>
-      </c>
+      <c r="B11" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="57"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Reports/ZacksRank/TanzyToInvest.xlsx
+++ b/Reports/ZacksRank/TanzyToInvest.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2A68826B-7E83-0C4A-B48D-626FEF9DF880}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB2955-8835-3F45-BA75-3FF2539D42D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" r:id="rId1" sheetId="1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="197">
   <si>
     <t>ETSY</t>
   </si>
@@ -523,9 +523,6 @@
     <t>Hold       ($66.73)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Jun_27</t>
   </si>
   <si>
@@ -557,14 +554,70 @@
   </si>
   <si>
     <t>Hold       ($65.46)</t>
+  </si>
+  <si>
+    <t>Jun_28</t>
+  </si>
+  <si>
+    <t>Buy        ($40.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.00)</t>
+  </si>
+  <si>
+    <t>UN         ($0.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($35.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.41)</t>
+  </si>
+  <si>
+    <t>AOI</t>
+  </si>
+  <si>
+    <t>UN         ($16.05)</t>
+  </si>
+  <si>
+    <t>HCLP</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($11.70)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Hold       ($15.94)</t>
+  </si>
+  <si>
+    <t>HZNP</t>
+  </si>
+  <si>
+    <t>Hold       ($16.04)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -572,8 +625,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +655,12 @@
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -606,83 +672,96 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -699,10 +778,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -737,7 +816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -789,7 +868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -900,21 +979,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -931,7 +1010,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -983,755 +1062,796 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="25" width="16" customWidth="1" collapsed="1"/>
+    <col min="26" max="29" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="G2" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Y2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AC2" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AD2" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AE2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="R3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="S3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="T3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="W3" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="X3" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="Y3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" t="s">
         <v>111</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="Q4" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="R4" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="S4" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="T4" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="U4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="W4" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="X4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E5" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="G5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="L5" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="M5" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="N5" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="Q5" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="R5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="S5" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="T5" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="U5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="W5" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="X5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="E6" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="M6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="Q6" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="R6" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="S6" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="T6" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="U6" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="W6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="E7" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="M7" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="Q7" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="R7" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="S7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="E8" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="M8" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="E9" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="G9" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="M9" t="s">
         <v>95</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="N9" t="s">
         <v>95</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="P9" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="Q9" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="R9" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="S9" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="T9" t="s">
         <v>79</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="U9" t="s">
         <v>80</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="V9" t="s">
         <v>81</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="W9" t="s">
         <v>82</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="X9" t="s">
         <v>83</v>
       </c>
-      <c r="X9" s="0" t="s">
+      <c r="Y9" t="s">
         <v>84</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Z9" t="s">
         <v>85</v>
       </c>
-      <c r="Z9" s="0" t="s">
+      <c r="AA9" t="s">
         <v>86</v>
       </c>
-      <c r="AA9" s="0" t="s">
+      <c r="AB9" t="s">
         <v>86</v>
       </c>
-      <c r="AB9" s="0" t="s">
+      <c r="AC9" t="s">
         <v>87</v>
       </c>
-      <c r="AC9" s="0" t="s">
+      <c r="AD9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" t="s">
         <v>117</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="L10" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reports/ZacksRank/TanzyToInvest.xlsx
+++ b/Reports/ZacksRank/TanzyToInvest.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB2955-8835-3F45-BA75-3FF2539D42D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1E1B4ACD-959F-654D-B7AB-A78C1C1D415D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67383" uniqueCount="1164">
   <si>
     <t>ETSY</t>
   </si>
@@ -611,12 +611,2914 @@
   </si>
   <si>
     <t>Hold       ($16.04)</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Buy        ($42.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.02)</t>
+  </si>
+  <si>
+    <t>Buy        ($35.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.00)</t>
+  </si>
+  <si>
+    <t>UN         ($15.90)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($11.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.56)</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Buy        ($42.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.40)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.62)</t>
+  </si>
+  <si>
+    <t>UN         ($16.25)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($11.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.78)</t>
+  </si>
+  <si>
+    <t>UCTT</t>
+  </si>
+  <si>
+    <t>Hold       ($16.35)</t>
+  </si>
+  <si>
+    <t>ARAY</t>
+  </si>
+  <si>
+    <t>StrongSell ($4.08)</t>
+  </si>
+  <si>
+    <t>ADES</t>
+  </si>
+  <si>
+    <t>Hold       ($11.27)</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>Sell       ($43.75)</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Hold       ($50.40)</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>Hold       ($54.06)</t>
+  </si>
+  <si>
+    <t>FLEX</t>
+  </si>
+  <si>
+    <t>Hold       ($13.93)</t>
+  </si>
+  <si>
+    <t>NUAN</t>
+  </si>
+  <si>
+    <t>Sell       ($14.16)</t>
+  </si>
+  <si>
+    <t>VERI</t>
+  </si>
+  <si>
+    <t>Sell       ($17.97)</t>
+  </si>
+  <si>
+    <t>SSYS</t>
+  </si>
+  <si>
+    <t>Sell       ($19.70)</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Buy        ($44.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.75)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.05)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($35.05)</t>
+  </si>
+  <si>
+    <t>UN         ($0.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($37.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.83)</t>
+  </si>
+  <si>
+    <t>UN         ($18.40)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($12.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.65)</t>
+  </si>
+  <si>
+    <t>Sell       ($44.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.49)</t>
+  </si>
+  <si>
+    <t>Sell       ($17.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.61)</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>Buy        ($96.94)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Buy        ($44.44)</t>
+  </si>
+  <si>
+    <t>Buy        ($26.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($83.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.14)</t>
+  </si>
+  <si>
+    <t>UN         ($0.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($35.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.37)</t>
+  </si>
+  <si>
+    <t>UN         ($14.75)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.30)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($55.64)</t>
+  </si>
+  <si>
+    <t>StrongSell ($15.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($94.40)</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Buy        ($43.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($81.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.89)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($37.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($69.20)</t>
+  </si>
+  <si>
+    <t>UN         ($14.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.34)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.45)</t>
+  </si>
+  <si>
+    <t>StrongSell ($15.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($88.90)</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Buy        ($41.77)</t>
+  </si>
+  <si>
+    <t>Buy        ($25.47)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($79.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.51)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($35.60)</t>
+  </si>
+  <si>
+    <t>UN         ($0.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($32.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.19)</t>
+  </si>
+  <si>
+    <t>StrongSell ($14.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($91.53)</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Buy        ($41.97)</t>
+  </si>
+  <si>
+    <t>Buy        ($24.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.87)</t>
+  </si>
+  <si>
+    <t>Buy        ($80.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.60)</t>
+  </si>
+  <si>
+    <t>Buy        ($34.75)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.64)</t>
+  </si>
+  <si>
+    <t>UN         ($13.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.21)</t>
+  </si>
+  <si>
+    <t>Sell       ($46.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($90.56)</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>Buy        ($41.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($22.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.19)</t>
+  </si>
+  <si>
+    <t>Buy        ($76.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.57)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($33.05)</t>
+  </si>
+  <si>
+    <t>UN         ($0.17)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.42)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.59)</t>
+  </si>
+  <si>
+    <t>UN         ($16.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.05)</t>
+  </si>
+  <si>
+    <t>Buy        ($21.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.80)</t>
+  </si>
+  <si>
+    <t>Sell       ($46.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.92)</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Buy        ($41.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($79.60)</t>
+  </si>
+  <si>
+    <t>Sell       ($33.03)</t>
+  </si>
+  <si>
+    <t>Buy        ($34.35)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.68)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.04)</t>
+  </si>
+  <si>
+    <t>UN         ($16.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.97)</t>
+  </si>
+  <si>
+    <t>StrongSell ($14.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($46.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($96.54)</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Hold       ($46.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.48)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.04)</t>
+  </si>
+  <si>
+    <t>Buy        ($87.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.44)</t>
+  </si>
+  <si>
+    <t>UN         ($16.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.95)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.85)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.11)</t>
+  </si>
+  <si>
+    <t>Sell       ($51.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.68)</t>
+  </si>
+  <si>
+    <t>Buy        ($24.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($95.81)</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Hold       ($46.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($89.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.45)</t>
+  </si>
+  <si>
+    <t>UN         ($17.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.54)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.63)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.17)</t>
+  </si>
+  <si>
+    <t>Sell       ($50.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.59)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($23.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($95.92)</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Hold       ($46.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.86)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.31)</t>
+  </si>
+  <si>
+    <t>Buy        ($89.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.55)</t>
+  </si>
+  <si>
+    <t>UN         ($0.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.80)</t>
+  </si>
+  <si>
+    <t>UN         ($17.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.57)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.30)</t>
+  </si>
+  <si>
+    <t>Sell       ($51.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($98.80)</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Hold       ($47.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.57)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($89.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.62)</t>
+  </si>
+  <si>
+    <t>UN         ($18.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.50)</t>
+  </si>
+  <si>
+    <t>StrongSell ($13.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.22)</t>
+  </si>
+  <si>
+    <t>Sell       ($52.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.80)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.73)</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Hold       ($49.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($93.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.15)</t>
+  </si>
+  <si>
+    <t>UN         ($0.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.08)</t>
+  </si>
+  <si>
+    <t>UN         ($18.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.19)</t>
+  </si>
+  <si>
+    <t>StrongSell ($14.03)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.01)</t>
+  </si>
+  <si>
+    <t>Sell       ($52.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.90)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.40)</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Hold       ($48.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.76)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.33)</t>
+  </si>
+  <si>
+    <t>Buy        ($93.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($41.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($73.91)</t>
+  </si>
+  <si>
+    <t>UN         ($17.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.14)</t>
+  </si>
+  <si>
+    <t>Sell       ($15.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.11)</t>
+  </si>
+  <si>
+    <t>Sell       ($52.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($96.01)</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Hold       ($49.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.99)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($96.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.59)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.82)</t>
+  </si>
+  <si>
+    <t>UN         ($23.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.51)</t>
+  </si>
+  <si>
+    <t>StrongSell ($13.59)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($52.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.96)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.18)</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Hold       ($49.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($19.46)</t>
+  </si>
+  <si>
+    <t>Buy        ($91.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.53)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.15)</t>
+  </si>
+  <si>
+    <t>UN         ($0.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.07)</t>
+  </si>
+  <si>
+    <t>Buy        ($54.43)</t>
+  </si>
+  <si>
+    <t>Buy        ($52.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.31)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.43)</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>Hold       ($49.96)</t>
+  </si>
+  <si>
+    <t>Buy        ($18.98)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($90.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($34.73)</t>
+  </si>
+  <si>
+    <t>UN         ($0.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.85)</t>
+  </si>
+  <si>
+    <t>StrongSell ($12.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.51)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.91)</t>
+  </si>
+  <si>
+    <t>Buy        ($17.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.55)</t>
+  </si>
+  <si>
+    <t>Buy        ($22.41)</t>
+  </si>
+  <si>
+    <t>Buy        ($95.00)</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Hold       ($44.40)</t>
+  </si>
+  <si>
+    <t>Buy        ($19.51)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.81)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($84.19)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.85)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($33.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.31)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($11.69)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($17.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($94.37)</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Hold       ($43.43)</t>
+  </si>
+  <si>
+    <t>Buy        ($18.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.81)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($78.41)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.57)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.76)</t>
+  </si>
+  <si>
+    <t>Buy        ($65.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($7.64)</t>
+  </si>
+  <si>
+    <t>Buy        ($20.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.19)</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>Buy        ($42.84)</t>
+  </si>
+  <si>
+    <t>Buy        ($19.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.67)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($77.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.99)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.00)</t>
+  </si>
+  <si>
+    <t>Sell       ($27.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.41)</t>
+  </si>
+  <si>
+    <t>StrongSell ($6.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.52)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($52.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.21)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.56)</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($52.01)</t>
+  </si>
+  <si>
+    <t>Buy        ($17.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($83.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.19)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.12)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.03)</t>
+  </si>
+  <si>
+    <t>StrongSell ($6.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.29)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.49)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.68)</t>
+  </si>
+  <si>
+    <t>Buy        ($53.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.50)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.03)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($23.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($88.79)</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Buy        ($45.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.04)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($26.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($27.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.25)</t>
+  </si>
+  <si>
+    <t>StrongSell ($7.14)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.22)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.05)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.46)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.51)</t>
+  </si>
+  <si>
+    <t>Buy        ($55.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.12)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.33)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($89.48)</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Buy        ($45.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.10)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($25.79)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.67)</t>
+  </si>
+  <si>
+    <t>StrongSell ($6.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($24.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.15)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.75)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.51)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.86)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($16.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.50)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.63)</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Buy        ($54.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($82.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.82)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($27.91)</t>
+  </si>
+  <si>
+    <t>UN         ($0.25)</t>
+  </si>
+  <si>
+    <t>Buy        ($31.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.86)</t>
+  </si>
+  <si>
+    <t>Sell       ($24.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.98)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.40)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.10)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($54.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.31)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.75)</t>
+  </si>
+  <si>
+    <t>Sell       ($15.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.91)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($94.27)</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Buy        ($53.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.75)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.73)</t>
+  </si>
+  <si>
+    <t>UN         ($0.22)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.01)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.65)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.85)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.85)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.71)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.41)</t>
+  </si>
+  <si>
+    <t>Sell       ($15.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.63)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($20.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.96)</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>Buy        ($54.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.39)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($82.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.93)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.00)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.05)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.78)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.67)</t>
+  </si>
+  <si>
+    <t>StrongSell ($7.73)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.67)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($19.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.61)</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>Buy        ($47.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.91)</t>
+  </si>
+  <si>
+    <t>Buy        ($20.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.42)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.21)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.45)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.62)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.07)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($18.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($91.12)</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Buy        ($51.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.75)</t>
+  </si>
+  <si>
+    <t>Buy        ($24.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($74.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.66)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.23)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.80)</t>
+  </si>
+  <si>
+    <t>StrongSell ($7.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.56)</t>
+  </si>
+  <si>
+    <t>Buy        ($18.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($90.37)</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>Hold       ($17.54)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($74.65)</t>
+  </si>
+  <si>
+    <t>Sell       ($3.94)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.87)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($48.08)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($15.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.89)</t>
+  </si>
+  <si>
+    <t>Buy        ($19.71)</t>
+  </si>
+  <si>
+    <t>Buy        ($88.31)</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>Buy        ($55.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.14)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($91.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.42)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.60)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.84)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.66)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.14)</t>
+  </si>
+  <si>
+    <t>Sell       ($15.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($21.28)</t>
+  </si>
+  <si>
+    <t>Buy        ($89.50)</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Hold       ($17.55)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.25)</t>
+  </si>
+  <si>
+    <t>Buy        ($91.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($44.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.37)</t>
+  </si>
+  <si>
+    <t>StrongSell ($79.95)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.42)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.41)</t>
+  </si>
+  <si>
+    <t>StrongSell ($11.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.40)</t>
+  </si>
+  <si>
+    <t>StrongSell ($8.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($22.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.54)</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>Buy        ($54.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($92.44)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($21.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.54)</t>
+  </si>
+  <si>
+    <t>StrongSell ($80.59)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.33)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.49)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.86)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.32)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.87)</t>
+  </si>
+  <si>
+    <t>Buy        ($25.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.29)</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>Buy        ($29.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($29.83)</t>
+  </si>
+  <si>
+    <t>UN         ($29.83)</t>
+  </si>
+  <si>
+    <t>StrongSell ($29.83)</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Buy        ($51.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.32)</t>
+  </si>
+  <si>
+    <t>Buy        ($96.61)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.46)</t>
+  </si>
+  <si>
+    <t>Sell       ($20.33)</t>
+  </si>
+  <si>
+    <t>UN         ($0.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.27)</t>
+  </si>
+  <si>
+    <t>StrongSell ($79.70)</t>
+  </si>
+  <si>
+    <t>StrongSell ($3.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.62)</t>
+  </si>
+  <si>
+    <t>Sell       ($22.86)</t>
+  </si>
+  <si>
+    <t>Sell       ($12.28)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.84)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.12)</t>
+  </si>
+  <si>
+    <t>Buy        ($25.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.62)</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Hold       ($19.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($100.90)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($20.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.24)</t>
+  </si>
+  <si>
+    <t>StrongSell ($80.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.90)</t>
+  </si>
+  <si>
+    <t>Sell       ($12.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.83)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.04)</t>
+  </si>
+  <si>
+    <t>Buy        ($25.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.67)</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Buy        ($55.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($103.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($46.22)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.75)</t>
+  </si>
+  <si>
+    <t>StrongSell ($81.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.15)</t>
+  </si>
+  <si>
+    <t>Sell       ($12.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($49.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.43)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($27.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.79)</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Buy        ($54.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($104.67)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.50)</t>
+  </si>
+  <si>
+    <t>Sell       ($21.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.84)</t>
+  </si>
+  <si>
+    <t>StrongSell ($84.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.17)</t>
+  </si>
+  <si>
+    <t>Sell       ($12.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.99)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.25)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.85)</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>Buy        ($56.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($105.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($48.32)</t>
+  </si>
+  <si>
+    <t>Sell       ($22.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.25)</t>
+  </si>
+  <si>
+    <t>StrongSell ($84.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($53.22)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.02)</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>Hold       ($71.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($105.29)</t>
+  </si>
+  <si>
+    <t>Buy        ($65.57)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.77)</t>
+  </si>
+  <si>
+    <t>StrongSell ($86.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.08)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.82)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.48)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.54)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.17)</t>
+  </si>
+  <si>
+    <t>Buy        ($28.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.24)</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Hold       ($72.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.52)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($105.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.24)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.52)</t>
+  </si>
+  <si>
+    <t>StrongSell ($88.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.18)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.84)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.69)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.76)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.86)</t>
+  </si>
+  <si>
+    <t>Buy        ($26.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.10)</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Hold       ($70.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.09)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($102.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.38)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($30.45)</t>
+  </si>
+  <si>
+    <t>StrongSell ($83.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.68)</t>
+  </si>
+  <si>
+    <t>Sell       ($18.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.75)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($52.06)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.49)</t>
+  </si>
+  <si>
+    <t>UN         ($26.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.09)</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
+  </si>
+  <si>
+    <t>Hold       ($67.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($101.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.52)</t>
+  </si>
+  <si>
+    <t>Sell       ($23.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.60)</t>
+  </si>
+  <si>
+    <t>Sell       ($30.37)</t>
+  </si>
+  <si>
+    <t>StrongSell ($82.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.56)</t>
+  </si>
+  <si>
+    <t>StrongSell ($9.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($44.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($50.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($51.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.92)</t>
+  </si>
+  <si>
+    <t>Sell       ($5.94)</t>
+  </si>
+  <si>
+    <t>UN         ($23.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.58)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,7 +3535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +3561,661 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -672,12 +4229,1150 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="1153">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -690,78 +5385,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -778,10 +5407,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -816,7 +5445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -868,7 +5497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -979,21 +5608,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1010,7 +5639,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1062,796 +5691,4301 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="25" width="16" customWidth="1" collapsed="1"/>
-    <col min="26" max="29" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="74" max="74" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="75" max="75" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT1" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AU1" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AV1" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AW1" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AX1" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AY1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="I1" t="s">
+      <c r="BA1" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="J1" t="s">
+      <c r="BB1" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="K1" t="s">
+      <c r="BC1" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="BD1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="M1" t="s">
+      <c r="BE1" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="BF1" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="O1" t="s">
+      <c r="BG1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="P1" t="s">
+      <c r="BH1" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="BI1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="BK1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c r="BL1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
+      <c r="BM1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="V1" t="s">
+      <c r="BN1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BO1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="BP1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BQ1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BR1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BS1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BT1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BU1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BV1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BW1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="1128" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C2" s="1103" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2" s="1078" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E2" s="1053" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F2" s="1028" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G2" s="1003" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H2" s="978" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I2" s="953" t="s">
+        <v>711</v>
+      </c>
+      <c r="J2" s="928" t="s">
+        <v>974</v>
+      </c>
+      <c r="K2" s="903" t="s">
+        <v>968</v>
+      </c>
+      <c r="L2" s="878" t="s">
+        <v>945</v>
+      </c>
+      <c r="M2" s="853" t="s">
+        <v>734</v>
+      </c>
+      <c r="N2" s="828" t="s">
+        <v>902</v>
+      </c>
+      <c r="O2" s="803" t="s">
+        <v>687</v>
+      </c>
+      <c r="P2" s="778" t="s">
+        <v>858</v>
+      </c>
+      <c r="Q2" s="753" t="s">
+        <v>837</v>
+      </c>
+      <c r="R2" s="728" t="s">
+        <v>814</v>
+      </c>
+      <c r="S2" s="703" t="s">
+        <v>789</v>
+      </c>
+      <c r="T2" s="678" t="s">
+        <v>766</v>
+      </c>
+      <c r="U2" s="653" t="s">
+        <v>742</v>
+      </c>
+      <c r="V2" s="628" t="s">
+        <v>719</v>
+      </c>
+      <c r="W2" s="603" t="s">
+        <v>695</v>
+      </c>
+      <c r="X2" s="578" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y2" s="553" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z2" s="528" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA2" s="503" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB2" s="478" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC2" s="453" t="s">
+        <v>559</v>
+      </c>
+      <c r="AD2" s="428" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE2" s="403" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF2" s="378" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG2" s="353" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH2" s="328" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI2" s="303" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ2" s="278" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK2" s="253" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL2" s="228" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM2" s="203" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN2" s="178" t="s">
+        <v>295</v>
+      </c>
+      <c r="AO2" s="153" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP2" s="129" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ2" s="109" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR2" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS2" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT2" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="AU2" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="AV2" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="AW2" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="AX2" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="AY2" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J2" t="s">
+      <c r="BB2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="K2" t="s">
+      <c r="BC2" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="L2" t="s">
+      <c r="BD2" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="M2" t="s">
+      <c r="BE2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="N2" t="s">
+      <c r="BF2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="O2" t="s">
+      <c r="BG2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P2" t="s">
+      <c r="BH2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="BI2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="R2" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
+      <c r="BK2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="BL2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="BM2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="BN2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="W2" t="s">
+      <c r="BO2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
+      <c r="BP2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="BQ2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="BR2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="BT2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="BU2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="BV2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="BW2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="1129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1104" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D3" s="1079" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E3" s="1054" t="s">
+        <v>931</v>
+      </c>
+      <c r="F3" s="1029" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G3" s="1004" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H3" s="979" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I3" s="954" t="s">
+        <v>996</v>
+      </c>
+      <c r="J3" s="929" t="s">
+        <v>975</v>
+      </c>
+      <c r="K3" s="904" t="s">
+        <v>969</v>
+      </c>
+      <c r="L3" s="879" t="s">
+        <v>946</v>
+      </c>
+      <c r="M3" s="854" t="s">
+        <v>923</v>
+      </c>
+      <c r="N3" s="829" t="s">
+        <v>903</v>
+      </c>
+      <c r="O3" s="804" t="s">
+        <v>881</v>
+      </c>
+      <c r="P3" s="779" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q3" s="754" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="729" t="s">
+        <v>815</v>
+      </c>
+      <c r="S3" s="704" t="s">
+        <v>790</v>
+      </c>
+      <c r="T3" s="679" t="s">
+        <v>767</v>
+      </c>
+      <c r="U3" s="654" t="s">
+        <v>743</v>
+      </c>
+      <c r="V3" s="629" t="s">
+        <v>720</v>
+      </c>
+      <c r="W3" s="604" t="s">
+        <v>696</v>
+      </c>
+      <c r="X3" s="579" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y3" s="554" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z3" s="529" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA3" s="504" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB3" s="479" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC3" s="454" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD3" s="429" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE3" s="404" t="s">
+        <v>511</v>
+      </c>
+      <c r="AF3" s="379" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG3" s="354" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH3" s="329" t="s">
+        <v>439</v>
+      </c>
+      <c r="AI3" s="304" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ3" s="279" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK3" s="254" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL3" s="229" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM3" s="204" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN3" s="179" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO3" s="154" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP3" s="130" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ3" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR3" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS3" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT3" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="AU3" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="AV3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="AW3" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="AX3" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="AY3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J3" t="s">
+      <c r="BB3" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="K3" t="s">
+      <c r="BC3" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="L3" t="s">
+      <c r="BD3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="M3" t="s">
+      <c r="BE3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="N3" t="s">
+      <c r="BF3" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="O3" t="s">
+      <c r="BG3" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="P3" t="s">
+      <c r="BH3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="BI3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="R3" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S3" t="s">
+      <c r="BK3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="T3" t="s">
+      <c r="BL3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="U3" t="s">
+      <c r="BM3" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="V3" t="s">
+      <c r="BN3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="W3" t="s">
+      <c r="BO3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="X3" t="s">
+      <c r="BP3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="BQ3" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="1130" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C4" s="1105" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D4" s="1080" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E4" s="1055" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F4" s="1030" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G4" s="1005" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H4" s="980" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I4" s="955" t="s">
+        <v>997</v>
+      </c>
+      <c r="J4" s="930" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" s="905" t="s">
+        <v>970</v>
+      </c>
+      <c r="L4" s="880" t="s">
+        <v>947</v>
+      </c>
+      <c r="M4" s="855" t="s">
+        <v>924</v>
+      </c>
+      <c r="N4" s="830" t="s">
+        <v>904</v>
+      </c>
+      <c r="O4" s="805" t="s">
+        <v>882</v>
+      </c>
+      <c r="P4" s="780" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q4" s="755" t="s">
+        <v>838</v>
+      </c>
+      <c r="R4" s="730" t="s">
+        <v>816</v>
+      </c>
+      <c r="S4" s="705" t="s">
+        <v>791</v>
+      </c>
+      <c r="T4" s="680" t="s">
+        <v>768</v>
+      </c>
+      <c r="U4" s="655" t="s">
+        <v>744</v>
+      </c>
+      <c r="V4" s="630" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="605" t="s">
+        <v>697</v>
+      </c>
+      <c r="X4" s="580" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y4" s="555" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z4" s="530" t="s">
+        <v>628</v>
+      </c>
+      <c r="AA4" s="505" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB4" s="480" t="s">
+        <v>464</v>
+      </c>
+      <c r="AC4" s="455" t="s">
+        <v>561</v>
+      </c>
+      <c r="AD4" s="430" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE4" s="405" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF4" s="380" t="s">
+        <v>490</v>
+      </c>
+      <c r="AG4" s="355" t="s">
+        <v>464</v>
+      </c>
+      <c r="AH4" s="330" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI4" s="305" t="s">
+        <v>417</v>
+      </c>
+      <c r="AJ4" s="280" t="s">
+        <v>393</v>
+      </c>
+      <c r="AK4" s="255" t="s">
+        <v>369</v>
+      </c>
+      <c r="AL4" s="230" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM4" s="205" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN4" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO4" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP4" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ4" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR4" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS4" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT4" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="AU4" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="AV4" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="AW4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="AX4" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="AY4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="BA4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J4" t="s">
+      <c r="BB4" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="K4" t="s">
+      <c r="BC4" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="L4" t="s">
+      <c r="BD4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="M4" t="s">
+      <c r="BE4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="N4" t="s">
+      <c r="BF4" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O4" t="s">
+      <c r="BG4" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P4" t="s">
+      <c r="BH4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="BI4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="R4" t="s">
+      <c r="BJ4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="S4" t="s">
+      <c r="BK4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="T4" t="s">
+      <c r="BL4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="U4" t="s">
+      <c r="BM4" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="BN4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W4" t="s">
+      <c r="BO4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X4" t="s">
+      <c r="BP4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="1131" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C5" s="1106" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D5" s="1081" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E5" s="1056" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F5" s="1031" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G5" s="1006" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H5" s="981" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I5" s="956" t="s">
+        <v>998</v>
+      </c>
+      <c r="J5" s="931" t="s">
+        <v>976</v>
+      </c>
+      <c r="K5" s="906" t="s">
+        <v>969</v>
+      </c>
+      <c r="L5" s="881" t="s">
+        <v>948</v>
+      </c>
+      <c r="M5" s="856" t="s">
+        <v>925</v>
+      </c>
+      <c r="N5" s="831" t="s">
+        <v>905</v>
+      </c>
+      <c r="O5" s="806" t="s">
+        <v>883</v>
+      </c>
+      <c r="P5" s="781" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q5" s="756" t="s">
+        <v>839</v>
+      </c>
+      <c r="R5" s="731" t="s">
+        <v>817</v>
+      </c>
+      <c r="S5" s="706" t="s">
+        <v>792</v>
+      </c>
+      <c r="T5" s="681" t="s">
+        <v>769</v>
+      </c>
+      <c r="U5" s="656" t="s">
+        <v>745</v>
+      </c>
+      <c r="V5" s="631" t="s">
+        <v>721</v>
+      </c>
+      <c r="W5" s="606" t="s">
+        <v>698</v>
+      </c>
+      <c r="X5" s="581" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y5" s="556" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z5" s="531" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA5" s="506" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB5" s="481" t="s">
+        <v>583</v>
+      </c>
+      <c r="AC5" s="456" t="s">
+        <v>562</v>
+      </c>
+      <c r="AD5" s="431" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE5" s="406" t="s">
+        <v>513</v>
+      </c>
+      <c r="AF5" s="381" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG5" s="356" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH5" s="331" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI5" s="306" t="s">
+        <v>418</v>
+      </c>
+      <c r="AJ5" s="281" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK5" s="256" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL5" s="231" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM5" s="206" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN5" s="181" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO5" s="156" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP5" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ5" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR5" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS5" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT5" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="AU5" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="AV5" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="AW5" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="AX5" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="AY5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="AZ5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="BA5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J5" t="s">
+      <c r="BB5" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="K5" t="s">
+      <c r="BC5" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="L5" t="s">
+      <c r="BD5" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="M5" t="s">
+      <c r="BE5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="N5" t="s">
+      <c r="BF5" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="O5" t="s">
+      <c r="BG5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="P5" t="s">
+      <c r="BH5" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="BI5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="R5" t="s">
+      <c r="BJ5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="S5" t="s">
+      <c r="BK5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="T5" t="s">
+      <c r="BL5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="U5" t="s">
+      <c r="BM5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="V5" t="s">
+      <c r="BN5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="W5" t="s">
+      <c r="BO5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="X5" t="s">
+      <c r="BP5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="1132" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C6" s="1107" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D6" s="1082" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E6" s="1057" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F6" s="1032" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G6" s="1007" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H6" s="982" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I6" s="957" t="s">
+        <v>999</v>
+      </c>
+      <c r="J6" s="932" t="s">
+        <v>977</v>
+      </c>
+      <c r="K6" s="907" t="s">
+        <v>968</v>
+      </c>
+      <c r="L6" s="882" t="s">
+        <v>949</v>
+      </c>
+      <c r="M6" s="857" t="s">
+        <v>926</v>
+      </c>
+      <c r="N6" s="832" t="s">
+        <v>906</v>
+      </c>
+      <c r="O6" s="807" t="s">
+        <v>884</v>
+      </c>
+      <c r="P6" s="782" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q6" s="757" t="s">
+        <v>840</v>
+      </c>
+      <c r="R6" s="732" t="s">
+        <v>818</v>
+      </c>
+      <c r="S6" s="707" t="s">
+        <v>793</v>
+      </c>
+      <c r="T6" s="682" t="s">
+        <v>770</v>
+      </c>
+      <c r="U6" s="657" t="s">
+        <v>746</v>
+      </c>
+      <c r="V6" s="632" t="s">
+        <v>722</v>
+      </c>
+      <c r="W6" s="607" t="s">
+        <v>699</v>
+      </c>
+      <c r="X6" s="582" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y6" s="557" t="s">
+        <v>653</v>
+      </c>
+      <c r="Z6" s="532" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA6" s="507" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB6" s="482" t="s">
+        <v>584</v>
+      </c>
+      <c r="AC6" s="457" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD6" s="432" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE6" s="407" t="s">
+        <v>514</v>
+      </c>
+      <c r="AF6" s="382" t="s">
+        <v>492</v>
+      </c>
+      <c r="AG6" s="357" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH6" s="332" t="s">
+        <v>441</v>
+      </c>
+      <c r="AI6" s="307" t="s">
+        <v>419</v>
+      </c>
+      <c r="AJ6" s="282" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK6" s="257" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL6" s="232" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM6" s="207" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN6" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="AO6" s="157" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP6" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ6" s="113" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR6" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS6" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT6" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="AU6" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="AV6" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="AW6" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="AX6" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="AY6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="AZ6" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="BA6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="J6" t="s">
+      <c r="BB6" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K6" t="s">
+      <c r="BC6" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="L6" t="s">
+      <c r="BD6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="M6" t="s">
+      <c r="BE6" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="BF6" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
+      <c r="BG6" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="P6" t="s">
+      <c r="BH6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="BI6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R6" t="s">
+      <c r="BJ6" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="S6" t="s">
+      <c r="BK6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="T6" t="s">
+      <c r="BL6" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="U6" t="s">
+      <c r="BM6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="V6" t="s">
+      <c r="BN6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="W6" t="s">
+      <c r="BO6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="1133" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C7" s="1108" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D7" s="1083" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E7" s="1058" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F7" s="1033" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G7" s="1008" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H7" s="983" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I7" s="958" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="933" t="s">
+        <v>978</v>
+      </c>
+      <c r="K7" s="908" t="s">
+        <v>969</v>
+      </c>
+      <c r="L7" s="883" t="s">
+        <v>950</v>
+      </c>
+      <c r="M7" s="858" t="s">
+        <v>306</v>
+      </c>
+      <c r="N7" s="833" t="s">
+        <v>801</v>
+      </c>
+      <c r="O7" s="808" t="s">
+        <v>885</v>
+      </c>
+      <c r="P7" s="783" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q7" s="758" t="s">
+        <v>841</v>
+      </c>
+      <c r="R7" s="733" t="s">
+        <v>819</v>
+      </c>
+      <c r="S7" s="708" t="s">
+        <v>794</v>
+      </c>
+      <c r="T7" s="683" t="s">
+        <v>771</v>
+      </c>
+      <c r="U7" s="658" t="s">
+        <v>747</v>
+      </c>
+      <c r="V7" s="633" t="s">
+        <v>723</v>
+      </c>
+      <c r="W7" s="608" t="s">
+        <v>700</v>
+      </c>
+      <c r="X7" s="583" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y7" s="558" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z7" s="533" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA7" s="508" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB7" s="483" t="s">
+        <v>585</v>
+      </c>
+      <c r="AC7" s="458" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD7" s="433" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE7" s="408" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF7" s="383" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG7" s="358" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH7" s="333" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI7" s="308" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ7" s="283" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK7" s="258" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL7" s="233" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM7" s="208" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN7" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO7" s="158" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP7" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ7" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR7" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS7" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="AT7" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU7" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="AV7" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="AW7" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="AX7" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="AY7" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="AZ7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="BA7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J7" t="s">
+      <c r="BB7" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K7" t="s">
+      <c r="BC7" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="L7" t="s">
+      <c r="BD7" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="M7" t="s">
+      <c r="BE7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="N7" t="s">
+      <c r="BF7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="O7" t="s">
+      <c r="BG7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P7" t="s">
+      <c r="BH7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="BI7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="R7" t="s">
+      <c r="BJ7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="S7" t="s">
+      <c r="BK7" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="1134" t="s">
+        <v>979</v>
+      </c>
+      <c r="C8" s="1109" t="s">
+        <v>979</v>
+      </c>
+      <c r="D8" s="1084" t="s">
+        <v>979</v>
+      </c>
+      <c r="E8" s="1059" t="s">
+        <v>979</v>
+      </c>
+      <c r="F8" s="1034" t="s">
+        <v>979</v>
+      </c>
+      <c r="G8" s="1009" t="s">
+        <v>979</v>
+      </c>
+      <c r="H8" s="984" t="s">
+        <v>979</v>
+      </c>
+      <c r="I8" s="959" t="s">
+        <v>979</v>
+      </c>
+      <c r="J8" s="934" t="s">
+        <v>979</v>
+      </c>
+      <c r="K8" s="909" t="s">
+        <v>971</v>
+      </c>
+      <c r="L8" s="884" t="s">
+        <v>795</v>
+      </c>
+      <c r="M8" s="859" t="s">
+        <v>373</v>
+      </c>
+      <c r="N8" s="834" t="s">
+        <v>468</v>
+      </c>
+      <c r="O8" s="809" t="s">
+        <v>275</v>
+      </c>
+      <c r="P8" s="784" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q8" s="759" t="s">
+        <v>373</v>
+      </c>
+      <c r="R8" s="734" t="s">
+        <v>468</v>
+      </c>
+      <c r="S8" s="709" t="s">
+        <v>795</v>
+      </c>
+      <c r="T8" s="684" t="s">
+        <v>772</v>
+      </c>
+      <c r="U8" s="659" t="s">
+        <v>586</v>
+      </c>
+      <c r="V8" s="634" t="s">
+        <v>608</v>
+      </c>
+      <c r="W8" s="609" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="X8" s="584" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y8" s="559" t="s">
+        <v>608</v>
+      </c>
+      <c r="Z8" s="534" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" s="509" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB8" s="484" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC8" s="459" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD8" s="434" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE8" s="409" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF8" s="384" t="s">
+        <v>468</v>
+      </c>
+      <c r="AG8" s="359" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH8" s="334" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI8" s="309" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ8" s="284" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK8" s="259" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL8" s="234" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM8" s="209" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN8" s="184" t="s">
+        <v>275</v>
+      </c>
+      <c r="AO8" s="159" t="s">
+        <v>275</v>
+      </c>
+      <c r="AP8" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ8" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="AR8" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS8" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT8" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU8" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="AV8" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="AW8" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="AX8" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="AY8" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="AZ8" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="BA8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J8" t="s">
+      <c r="BB8" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="K8" t="s">
+      <c r="BC8" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L8" t="s">
+      <c r="BD8" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="M8" t="s">
+      <c r="BE8" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="N8" t="s">
+      <c r="BF8" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="O8" t="s">
+      <c r="BG8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="1135" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C9" s="1110" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D9" s="1085" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="1060" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F9" s="1035" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G9" s="1010" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H9" s="985" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I9" s="960" t="s">
+        <v>863</v>
+      </c>
+      <c r="J9" s="935" t="s">
+        <v>980</v>
+      </c>
+      <c r="K9" s="910" t="s">
+        <v>969</v>
+      </c>
+      <c r="L9" s="885" t="s">
+        <v>951</v>
+      </c>
+      <c r="M9" s="860" t="s">
+        <v>927</v>
+      </c>
+      <c r="N9" s="835" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" s="810" t="s">
+        <v>886</v>
+      </c>
+      <c r="P9" s="785" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q9" s="760" t="s">
+        <v>842</v>
+      </c>
+      <c r="R9" s="735" t="s">
+        <v>820</v>
+      </c>
+      <c r="S9" s="710" t="s">
+        <v>796</v>
+      </c>
+      <c r="T9" s="685" t="s">
+        <v>773</v>
+      </c>
+      <c r="U9" s="660" t="s">
+        <v>748</v>
+      </c>
+      <c r="V9" s="635" t="s">
+        <v>724</v>
+      </c>
+      <c r="W9" s="610" t="s">
+        <v>701</v>
+      </c>
+      <c r="X9" s="585" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y9" s="560" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z9" s="535" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA9" s="510" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB9" s="485" t="s">
+        <v>587</v>
+      </c>
+      <c r="AC9" s="460" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD9" s="435" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE9" s="410" t="s">
+        <v>517</v>
+      </c>
+      <c r="AF9" s="385" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG9" s="360" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH9" s="335" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI9" s="310" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="285" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK9" s="260" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL9" s="235" t="s">
+        <v>348</v>
+      </c>
+      <c r="AM9" s="210" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN9" s="185" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO9" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP9" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ9" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR9" s="102" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS9" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT9" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="AU9" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="AV9" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="AW9" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="AX9" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="AY9" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="AZ9" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="BA9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="J9" t="s">
+      <c r="BB9" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="K9" t="s">
+      <c r="BC9" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="L9" t="s">
+      <c r="BD9" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="s">
+      <c r="BE9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="N9" t="s">
+      <c r="BF9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="O9" t="s">
+      <c r="BG9" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="P9" t="s">
+      <c r="BH9" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="BI9" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="R9" t="s">
+      <c r="BJ9" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="S9" t="s">
+      <c r="BK9" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="T9" t="s">
+      <c r="BL9" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="U9" t="s">
+      <c r="BM9" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="V9" t="s">
+      <c r="BN9" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="W9" t="s">
+      <c r="BO9" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="X9" t="s">
+      <c r="BP9" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="BQ9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="BR9" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="BS9" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="BT9" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="BU9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="BV9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="1136" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C10" s="1111" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D10" s="1086" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E10" s="1061" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F10" s="1036" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G10" s="1011" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H10" s="986" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I10" s="961" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="936" t="s">
+        <v>981</v>
+      </c>
+      <c r="K10" s="911" t="s">
+        <v>969</v>
+      </c>
+      <c r="L10" s="886" t="s">
+        <v>952</v>
+      </c>
+      <c r="M10" s="861" t="s">
+        <v>928</v>
+      </c>
+      <c r="N10" s="836" t="s">
+        <v>907</v>
+      </c>
+      <c r="O10" s="811" t="s">
+        <v>887</v>
+      </c>
+      <c r="P10" s="786" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q10" s="761" t="s">
+        <v>843</v>
+      </c>
+      <c r="R10" s="736" t="s">
+        <v>821</v>
+      </c>
+      <c r="S10" s="711" t="s">
+        <v>797</v>
+      </c>
+      <c r="T10" s="686" t="s">
+        <v>774</v>
+      </c>
+      <c r="U10" s="661" t="s">
+        <v>749</v>
+      </c>
+      <c r="V10" s="636" t="s">
+        <v>725</v>
+      </c>
+      <c r="W10" s="611" t="s">
+        <v>702</v>
+      </c>
+      <c r="X10" s="586" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y10" s="561" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z10" s="536" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA10" s="511" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB10" s="486" t="s">
+        <v>588</v>
+      </c>
+      <c r="AC10" s="461" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD10" s="436" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE10" s="411" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF10" s="386" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG10" s="361" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH10" s="336" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI10" s="311" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ10" s="286" t="s">
+        <v>398</v>
+      </c>
+      <c r="AK10" s="261" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL10" s="236" t="s">
+        <v>349</v>
+      </c>
+      <c r="AM10" s="211" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN10" s="186" t="s">
+        <v>302</v>
+      </c>
+      <c r="AO10" s="161" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP10" s="137" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ10" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR10" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS10" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT10" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="AU10" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="AV10" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="AW10" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="AX10" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="AY10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="AZ10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="BA10" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J10" t="s">
+      <c r="BB10" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="K10" t="s">
+      <c r="BC10" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="BD10" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="1137" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C11" s="1112" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D11" s="1087" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E11" s="1062" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F11" s="1037" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G11" s="1012" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H11" s="987" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I11" s="962" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J11" s="937" t="s">
+        <v>982</v>
+      </c>
+      <c r="K11" s="912" t="s">
+        <v>972</v>
+      </c>
+      <c r="L11" s="887" t="s">
+        <v>953</v>
+      </c>
+      <c r="M11" s="862" t="s">
+        <v>929</v>
+      </c>
+      <c r="N11" s="837" t="s">
+        <v>908</v>
+      </c>
+      <c r="O11" s="812" t="s">
+        <v>888</v>
+      </c>
+      <c r="P11" s="787" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q11" s="762" t="s">
+        <v>844</v>
+      </c>
+      <c r="R11" s="737" t="s">
+        <v>822</v>
+      </c>
+      <c r="S11" s="712" t="s">
+        <v>798</v>
+      </c>
+      <c r="T11" s="687" t="s">
+        <v>726</v>
+      </c>
+      <c r="U11" s="662" t="s">
+        <v>750</v>
+      </c>
+      <c r="V11" s="637" t="s">
+        <v>726</v>
+      </c>
+      <c r="W11" s="612" t="s">
+        <v>703</v>
+      </c>
+      <c r="X11" s="587" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y11" s="562" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z11" s="537" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA11" s="512" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB11" s="487" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC11" s="462" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD11" s="437" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE11" s="412" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF11" s="387" t="s">
+        <v>496</v>
+      </c>
+      <c r="AG11" s="362" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH11" s="337" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI11" s="312" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ11" s="287" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK11" s="262" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL11" s="237" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM11" s="212" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN11" s="187" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO11" s="162" t="s">
+        <v>278</v>
+      </c>
+      <c r="AP11" s="138" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ11" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR11" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS11" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT11" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="AU11" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="AV11" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="AW11" s="57"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="1138" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="1113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D12" s="1088" t="s">
+        <v>568</v>
+      </c>
+      <c r="E12" s="1063" t="s">
+        <v>568</v>
+      </c>
+      <c r="F12" s="1038" t="s">
+        <v>568</v>
+      </c>
+      <c r="G12" s="1013" t="s">
+        <v>568</v>
+      </c>
+      <c r="H12" s="988" t="s">
+        <v>568</v>
+      </c>
+      <c r="I12" s="963" t="s">
+        <v>568</v>
+      </c>
+      <c r="J12" s="938" t="s">
+        <v>568</v>
+      </c>
+      <c r="K12" s="913" t="s">
+        <v>971</v>
+      </c>
+      <c r="L12" s="888" t="s">
+        <v>568</v>
+      </c>
+      <c r="M12" s="863" t="s">
+        <v>568</v>
+      </c>
+      <c r="N12" s="838" t="s">
+        <v>568</v>
+      </c>
+      <c r="O12" s="813" t="s">
+        <v>568</v>
+      </c>
+      <c r="P12" s="788" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q12" s="763" t="s">
+        <v>568</v>
+      </c>
+      <c r="R12" s="738" t="s">
+        <v>568</v>
+      </c>
+      <c r="S12" s="713" t="s">
+        <v>568</v>
+      </c>
+      <c r="T12" s="688" t="s">
+        <v>568</v>
+      </c>
+      <c r="U12" s="663" t="s">
+        <v>568</v>
+      </c>
+      <c r="V12" s="638" t="s">
+        <v>568</v>
+      </c>
+      <c r="W12" s="613" t="s">
+        <v>568</v>
+      </c>
+      <c r="X12" s="588" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y12" s="563" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z12" s="538" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA12" s="513" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB12" s="488" t="s">
+        <v>568</v>
+      </c>
+      <c r="AC12" s="463" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD12" s="438" t="s">
+        <v>544</v>
+      </c>
+      <c r="AE12" s="413" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF12" s="388" t="s">
+        <v>497</v>
+      </c>
+      <c r="AG12" s="363" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH12" s="338" t="s">
+        <v>446</v>
+      </c>
+      <c r="AI12" s="313" t="s">
+        <v>422</v>
+      </c>
+      <c r="AJ12" s="288" t="s">
+        <v>400</v>
+      </c>
+      <c r="AK12" s="263" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL12" s="238" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM12" s="213" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN12" s="188" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO12" s="163" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP12" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="AQ12" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR12" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS12" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT12" s="78" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="1139" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C13" s="1114" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D13" s="1089" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E13" s="1064" t="s">
+        <v>912</v>
+      </c>
+      <c r="F13" s="1039" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G13" s="1014" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H13" s="989" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I13" s="964" t="s">
+        <v>309</v>
+      </c>
+      <c r="J13" s="939" t="s">
+        <v>983</v>
+      </c>
+      <c r="K13" s="914" t="s">
+        <v>970</v>
+      </c>
+      <c r="L13" s="889" t="s">
+        <v>954</v>
+      </c>
+      <c r="M13" s="864" t="s">
+        <v>930</v>
+      </c>
+      <c r="N13" s="839" t="s">
+        <v>909</v>
+      </c>
+      <c r="O13" s="814" t="s">
+        <v>889</v>
+      </c>
+      <c r="P13" s="789" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q13" s="764" t="s">
+        <v>845</v>
+      </c>
+      <c r="R13" s="739" t="s">
+        <v>823</v>
+      </c>
+      <c r="S13" s="714" t="s">
+        <v>799</v>
+      </c>
+      <c r="T13" s="689" t="s">
+        <v>775</v>
+      </c>
+      <c r="U13" s="664" t="s">
+        <v>751</v>
+      </c>
+      <c r="V13" s="639" t="s">
+        <v>727</v>
+      </c>
+      <c r="W13" s="614" t="s">
+        <v>704</v>
+      </c>
+      <c r="X13" s="589" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y13" s="564" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z13" s="539" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA13" s="514" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB13" s="489" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC13" s="464" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD13" s="439" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE13" s="414" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF13" s="389" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG13" s="364" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH13" s="339" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI13" s="314" t="s">
+        <v>423</v>
+      </c>
+      <c r="AJ13" s="289" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK13" s="264" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL13" s="239" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM13" s="214" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN13" s="189" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO13" s="164" t="s">
+        <v>280</v>
+      </c>
+      <c r="AP13" s="140" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ13" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR13" s="106" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS13" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT13" s="79" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="1140" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C14" s="1115" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D14" s="1090" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E14" s="1065" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F14" s="1040" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G14" s="1015" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H14" s="990" t="s">
+        <v>448</v>
+      </c>
+      <c r="I14" s="965" t="s">
+        <v>416</v>
+      </c>
+      <c r="J14" s="940" t="s">
+        <v>984</v>
+      </c>
+      <c r="K14" s="915" t="s">
+        <v>969</v>
+      </c>
+      <c r="L14" s="890" t="s">
+        <v>955</v>
+      </c>
+      <c r="M14" s="865" t="s">
+        <v>931</v>
+      </c>
+      <c r="N14" s="840" t="s">
+        <v>547</v>
+      </c>
+      <c r="O14" s="815" t="s">
+        <v>485</v>
+      </c>
+      <c r="P14" s="790" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q14" s="765" t="s">
+        <v>800</v>
+      </c>
+      <c r="R14" s="740" t="s">
+        <v>824</v>
+      </c>
+      <c r="S14" s="715" t="s">
+        <v>800</v>
+      </c>
+      <c r="T14" s="690" t="s">
+        <v>776</v>
+      </c>
+      <c r="U14" s="665" t="s">
+        <v>752</v>
+      </c>
+      <c r="V14" s="640" t="s">
+        <v>728</v>
+      </c>
+      <c r="W14" s="615" t="s">
+        <v>705</v>
+      </c>
+      <c r="X14" s="590" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y14" s="565" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z14" s="540" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA14" s="515" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB14" s="490" t="s">
+        <v>591</v>
+      </c>
+      <c r="AC14" s="465" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD14" s="440" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE14" s="415" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF14" s="390" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG14" s="365" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH14" s="340" t="s">
+        <v>448</v>
+      </c>
+      <c r="AI14" s="315" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ14" s="290" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK14" s="265" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL14" s="240" t="s">
+        <v>353</v>
+      </c>
+      <c r="AM14" s="215" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN14" s="190" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO14" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP14" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ14" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR14" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="AS14" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT14" s="78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="1141" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C15" s="1116" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D15" s="1091" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E15" s="1066" t="s">
+        <v>887</v>
+      </c>
+      <c r="F15" s="1041" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G15" s="1016" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H15" s="991" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="966" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J15" s="941" t="s">
+        <v>985</v>
+      </c>
+      <c r="K15" s="916" t="s">
+        <v>970</v>
+      </c>
+      <c r="L15" s="891" t="s">
+        <v>956</v>
+      </c>
+      <c r="M15" s="866" t="s">
+        <v>932</v>
+      </c>
+      <c r="N15" s="841" t="s">
+        <v>910</v>
+      </c>
+      <c r="O15" s="816" t="s">
+        <v>890</v>
+      </c>
+      <c r="P15" s="791" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q15" s="766" t="s">
+        <v>846</v>
+      </c>
+      <c r="R15" s="741" t="s">
+        <v>819</v>
+      </c>
+      <c r="S15" s="716" t="s">
+        <v>801</v>
+      </c>
+      <c r="T15" s="691" t="s">
+        <v>777</v>
+      </c>
+      <c r="U15" s="666" t="s">
+        <v>753</v>
+      </c>
+      <c r="V15" s="641" t="s">
+        <v>729</v>
+      </c>
+      <c r="W15" s="616" t="s">
+        <v>706</v>
+      </c>
+      <c r="X15" s="591" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y15" s="566" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z15" s="541" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA15" s="516" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB15" s="491" t="s">
+        <v>592</v>
+      </c>
+      <c r="AC15" s="466" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD15" s="441" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE15" s="416" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF15" s="391" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG15" s="366" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH15" s="341" t="s">
+        <v>449</v>
+      </c>
+      <c r="AI15" s="316" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ15" s="291" t="s">
+        <v>403</v>
+      </c>
+      <c r="AK15" s="266" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL15" s="241" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM15" s="216" t="s">
+        <v>331</v>
+      </c>
+      <c r="AN15" s="191" t="s">
+        <v>307</v>
+      </c>
+      <c r="AO15" s="166" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP15" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ15" s="122" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR15" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS15" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT15" s="78" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="1142" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C16" s="1117" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D16" s="1092" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E16" s="1067" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F16" s="1042" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G16" s="1017" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H16" s="992" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I16" s="967" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J16" s="942" t="s">
+        <v>986</v>
+      </c>
+      <c r="K16" s="917" t="s">
+        <v>970</v>
+      </c>
+      <c r="L16" s="892" t="s">
+        <v>957</v>
+      </c>
+      <c r="M16" s="867" t="s">
+        <v>933</v>
+      </c>
+      <c r="N16" s="842" t="s">
+        <v>911</v>
+      </c>
+      <c r="O16" s="817" t="s">
+        <v>891</v>
+      </c>
+      <c r="P16" s="792" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q16" s="767" t="s">
+        <v>847</v>
+      </c>
+      <c r="R16" s="742" t="s">
+        <v>825</v>
+      </c>
+      <c r="S16" s="717" t="s">
+        <v>802</v>
+      </c>
+      <c r="T16" s="692" t="s">
+        <v>778</v>
+      </c>
+      <c r="U16" s="667" t="s">
+        <v>754</v>
+      </c>
+      <c r="V16" s="642" t="s">
+        <v>730</v>
+      </c>
+      <c r="W16" s="617" t="s">
+        <v>707</v>
+      </c>
+      <c r="X16" s="592" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y16" s="567" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z16" s="542" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA16" s="517" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB16" s="492" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC16" s="467" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD16" s="442" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE16" s="417" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF16" s="392" t="s">
+        <v>501</v>
+      </c>
+      <c r="AG16" s="367" t="s">
+        <v>476</v>
+      </c>
+      <c r="AH16" s="342" t="s">
+        <v>450</v>
+      </c>
+      <c r="AI16" s="317" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ16" s="292" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK16" s="267" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL16" s="242" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM16" s="217" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN16" s="192" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO16" s="167" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP16" s="143" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ16" s="123" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR16" s="108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="1143" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C17" s="1118" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D17" s="1093" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E17" s="1068" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F17" s="1043" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G17" s="1018" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H17" s="993" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I17" s="968" t="s">
+        <v>992</v>
+      </c>
+      <c r="J17" s="943" t="s">
+        <v>987</v>
+      </c>
+      <c r="K17" s="918" t="s">
+        <v>969</v>
+      </c>
+      <c r="L17" s="893" t="s">
+        <v>958</v>
+      </c>
+      <c r="M17" s="868" t="s">
+        <v>934</v>
+      </c>
+      <c r="N17" s="843" t="s">
+        <v>912</v>
+      </c>
+      <c r="O17" s="818" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" s="793" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q17" s="768" t="s">
+        <v>848</v>
+      </c>
+      <c r="R17" s="743" t="s">
+        <v>826</v>
+      </c>
+      <c r="S17" s="718" t="s">
+        <v>803</v>
+      </c>
+      <c r="T17" s="693" t="s">
+        <v>779</v>
+      </c>
+      <c r="U17" s="668" t="s">
+        <v>755</v>
+      </c>
+      <c r="V17" s="643" t="s">
+        <v>731</v>
+      </c>
+      <c r="W17" s="618" t="s">
+        <v>708</v>
+      </c>
+      <c r="X17" s="593" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y17" s="568" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z17" s="543" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA17" s="518" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB17" s="493" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC17" s="468" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD17" s="443" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE17" s="418" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF17" s="393" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG17" s="368" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH17" s="343" t="s">
+        <v>451</v>
+      </c>
+      <c r="AI17" s="318" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ17" s="293" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK17" s="268" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL17" s="243" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM17" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN17" s="193" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO17" s="168" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP17" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ17" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR17" s="108" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="1144" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C18" s="1119" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D18" s="1094" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E18" s="1069" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F18" s="1044" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G18" s="1019" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H18" s="994" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I18" s="969" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J18" s="944" t="s">
+        <v>988</v>
+      </c>
+      <c r="K18" s="919" t="s">
+        <v>969</v>
+      </c>
+      <c r="L18" s="894" t="s">
+        <v>959</v>
+      </c>
+      <c r="M18" s="869" t="s">
+        <v>935</v>
+      </c>
+      <c r="N18" s="844" t="s">
+        <v>913</v>
+      </c>
+      <c r="O18" s="819" t="s">
+        <v>892</v>
+      </c>
+      <c r="P18" s="794" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q18" s="769" t="s">
+        <v>849</v>
+      </c>
+      <c r="R18" s="744" t="s">
+        <v>827</v>
+      </c>
+      <c r="S18" s="719" t="s">
+        <v>804</v>
+      </c>
+      <c r="T18" s="694" t="s">
+        <v>780</v>
+      </c>
+      <c r="U18" s="669" t="s">
+        <v>756</v>
+      </c>
+      <c r="V18" s="644" t="s">
+        <v>732</v>
+      </c>
+      <c r="W18" s="619" t="s">
+        <v>709</v>
+      </c>
+      <c r="X18" s="594" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y18" s="569" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z18" s="544" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA18" s="519" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB18" s="494" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC18" s="469" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD18" s="444" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE18" s="419" t="s">
+        <v>525</v>
+      </c>
+      <c r="AF18" s="394" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG18" s="369" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH18" s="344" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI18" s="319" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ18" s="294" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK18" s="269" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL18" s="244" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM18" s="219" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN18" s="194" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO18" s="169" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP18" s="145" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ18" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR18" s="108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="1145" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C19" s="1120" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D19" s="1095" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E19" s="1070" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F19" s="1045" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="1020" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H19" s="995" t="s">
+        <v>1028</v>
+      </c>
+      <c r="I19" s="970" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J19" s="945" t="s">
+        <v>581</v>
+      </c>
+      <c r="K19" s="920" t="s">
+        <v>969</v>
+      </c>
+      <c r="L19" s="895" t="s">
+        <v>960</v>
+      </c>
+      <c r="M19" s="870" t="s">
+        <v>936</v>
+      </c>
+      <c r="N19" s="845" t="s">
+        <v>914</v>
+      </c>
+      <c r="O19" s="820" t="s">
+        <v>893</v>
+      </c>
+      <c r="P19" s="795" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q19" s="770" t="s">
+        <v>850</v>
+      </c>
+      <c r="R19" s="745" t="s">
+        <v>828</v>
+      </c>
+      <c r="S19" s="720" t="s">
+        <v>805</v>
+      </c>
+      <c r="T19" s="695" t="s">
+        <v>231</v>
+      </c>
+      <c r="U19" s="670" t="s">
+        <v>757</v>
+      </c>
+      <c r="V19" s="645" t="s">
+        <v>733</v>
+      </c>
+      <c r="W19" s="620" t="s">
+        <v>710</v>
+      </c>
+      <c r="X19" s="595" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y19" s="570" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z19" s="545" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA19" s="520" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB19" s="495" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC19" s="470" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD19" s="445" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE19" s="420" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF19" s="395" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG19" s="370" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH19" s="345" t="s">
+        <v>453</v>
+      </c>
+      <c r="AI19" s="320" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ19" s="295" t="s">
+        <v>406</v>
+      </c>
+      <c r="AK19" s="270" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL19" s="245" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM19" s="220" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN19" s="195" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO19" s="170" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP19" s="146" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ19" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR19" s="108" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="1146" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C20" s="1121" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D20" s="1096" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E20" s="1071" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F20" s="1046" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G20" s="1021" t="s">
+        <v>782</v>
+      </c>
+      <c r="H20" s="996" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I20" s="971" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J20" s="946" t="s">
+        <v>989</v>
+      </c>
+      <c r="K20" s="921" t="s">
+        <v>969</v>
+      </c>
+      <c r="L20" s="896" t="s">
+        <v>961</v>
+      </c>
+      <c r="M20" s="871" t="s">
+        <v>937</v>
+      </c>
+      <c r="N20" s="846" t="s">
+        <v>915</v>
+      </c>
+      <c r="O20" s="821" t="s">
+        <v>894</v>
+      </c>
+      <c r="P20" s="796" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q20" s="771" t="s">
+        <v>851</v>
+      </c>
+      <c r="R20" s="746" t="s">
+        <v>829</v>
+      </c>
+      <c r="S20" s="721" t="s">
+        <v>806</v>
+      </c>
+      <c r="T20" s="696" t="s">
+        <v>781</v>
+      </c>
+      <c r="U20" s="671" t="s">
+        <v>758</v>
+      </c>
+      <c r="V20" s="646" t="s">
+        <v>734</v>
+      </c>
+      <c r="W20" s="621" t="s">
+        <v>711</v>
+      </c>
+      <c r="X20" s="596" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y20" s="571" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z20" s="546" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA20" s="521" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB20" s="496" t="s">
+        <v>595</v>
+      </c>
+      <c r="AC20" s="471" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD20" s="446" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE20" s="421" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF20" s="396" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG20" s="371" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH20" s="346" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI20" s="321" t="s">
+        <v>430</v>
+      </c>
+      <c r="AJ20" s="296" t="s">
+        <v>407</v>
+      </c>
+      <c r="AK20" s="271" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL20" s="246" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM20" s="221" t="s">
+        <v>335</v>
+      </c>
+      <c r="AN20" s="196" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO20" s="171" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP20" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="AQ20" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR20" s="108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="1147" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C21" s="1122" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D21" s="1097" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E21" s="1072" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F21" s="1047" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G21" s="1022" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H21" s="997" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I21" s="972" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J21" s="947" t="s">
+        <v>990</v>
+      </c>
+      <c r="K21" s="922" t="s">
+        <v>969</v>
+      </c>
+      <c r="L21" s="897" t="s">
+        <v>962</v>
+      </c>
+      <c r="M21" s="872" t="s">
+        <v>938</v>
+      </c>
+      <c r="N21" s="847" t="s">
+        <v>916</v>
+      </c>
+      <c r="O21" s="822" t="s">
+        <v>895</v>
+      </c>
+      <c r="P21" s="797" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q21" s="772" t="s">
+        <v>852</v>
+      </c>
+      <c r="R21" s="747" t="s">
+        <v>830</v>
+      </c>
+      <c r="S21" s="722" t="s">
+        <v>807</v>
+      </c>
+      <c r="T21" s="697" t="s">
+        <v>782</v>
+      </c>
+      <c r="U21" s="672" t="s">
+        <v>759</v>
+      </c>
+      <c r="V21" s="647" t="s">
+        <v>735</v>
+      </c>
+      <c r="W21" s="622" t="s">
+        <v>712</v>
+      </c>
+      <c r="X21" s="597" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y21" s="572" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z21" s="547" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA21" s="522" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB21" s="497" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC21" s="472" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD21" s="447" t="s">
+        <v>552</v>
+      </c>
+      <c r="AE21" s="422" t="s">
+        <v>528</v>
+      </c>
+      <c r="AF21" s="397" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG21" s="372" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH21" s="347" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI21" s="322" t="s">
+        <v>431</v>
+      </c>
+      <c r="AJ21" s="297" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK21" s="272" t="s">
+        <v>385</v>
+      </c>
+      <c r="AL21" s="247" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM21" s="222" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN21" s="197" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO21" s="172" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP21" s="148" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ21" s="128" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR21" s="108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="1148" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C22" s="1123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="1098" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E22" s="1073" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F22" s="1048" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G22" s="1023" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H22" s="998" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I22" s="973" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J22" s="948" t="s">
+        <v>991</v>
+      </c>
+      <c r="K22" s="923" t="s">
+        <v>972</v>
+      </c>
+      <c r="L22" s="898" t="s">
+        <v>963</v>
+      </c>
+      <c r="M22" s="873" t="s">
+        <v>939</v>
+      </c>
+      <c r="N22" s="848" t="s">
+        <v>917</v>
+      </c>
+      <c r="O22" s="823" t="s">
+        <v>896</v>
+      </c>
+      <c r="P22" s="798" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q22" s="773" t="s">
+        <v>853</v>
+      </c>
+      <c r="R22" s="748" t="s">
+        <v>831</v>
+      </c>
+      <c r="S22" s="723" t="s">
+        <v>808</v>
+      </c>
+      <c r="T22" s="698" t="s">
+        <v>783</v>
+      </c>
+      <c r="U22" s="673" t="s">
+        <v>760</v>
+      </c>
+      <c r="V22" s="648" t="s">
+        <v>736</v>
+      </c>
+      <c r="W22" s="623" t="s">
+        <v>713</v>
+      </c>
+      <c r="X22" s="598" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y22" s="573" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z22" s="548" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA22" s="523" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB22" s="498" t="s">
+        <v>597</v>
+      </c>
+      <c r="AC22" s="473" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD22" s="448" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE22" s="423" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF22" s="398" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG22" s="373" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH22" s="348" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI22" s="323" t="s">
+        <v>432</v>
+      </c>
+      <c r="AJ22" s="298" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK22" s="273" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL22" s="248" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM22" s="223" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN22" s="198" t="s">
+        <v>314</v>
+      </c>
+      <c r="AO22" s="173" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP22" s="149" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ22" s="128" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="1149" t="s">
+        <v>737</v>
+      </c>
+      <c r="C23" s="1124" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="1099" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E23" s="1074" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F23" s="1049" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G23" s="1024" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H23" s="999" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I23" s="974" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J23" s="949" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="924" t="s">
+        <v>969</v>
+      </c>
+      <c r="L23" s="899" t="s">
+        <v>964</v>
+      </c>
+      <c r="M23" s="874" t="s">
+        <v>940</v>
+      </c>
+      <c r="N23" s="849" t="s">
+        <v>918</v>
+      </c>
+      <c r="O23" s="824" t="s">
+        <v>897</v>
+      </c>
+      <c r="P23" s="799" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q23" s="774" t="s">
+        <v>854</v>
+      </c>
+      <c r="R23" s="749" t="s">
+        <v>832</v>
+      </c>
+      <c r="S23" s="724" t="s">
+        <v>809</v>
+      </c>
+      <c r="T23" s="699" t="s">
+        <v>784</v>
+      </c>
+      <c r="U23" s="674" t="s">
+        <v>761</v>
+      </c>
+      <c r="V23" s="649" t="s">
+        <v>737</v>
+      </c>
+      <c r="W23" s="624" t="s">
+        <v>714</v>
+      </c>
+      <c r="X23" s="599" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y23" s="574" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z23" s="549" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA23" s="524" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB23" s="499" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC23" s="474" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD23" s="449" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE23" s="424" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF23" s="399" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG23" s="374" t="s">
+        <v>483</v>
+      </c>
+      <c r="AH23" s="349" t="s">
+        <v>457</v>
+      </c>
+      <c r="AI23" s="324" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ23" s="299" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK23" s="274" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL23" s="249" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM23" s="224" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN23" s="199" t="s">
+        <v>315</v>
+      </c>
+      <c r="AO23" s="174" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP23" s="150" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ23" s="128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="1150" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C24" s="1125" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D24" s="1100" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E24" s="1075" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F24" s="1050" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G24" s="1025" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H24" s="1000" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I24" s="975" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J24" s="950" t="s">
+        <v>992</v>
+      </c>
+      <c r="K24" s="925" t="s">
+        <v>969</v>
+      </c>
+      <c r="L24" s="900" t="s">
+        <v>738</v>
+      </c>
+      <c r="M24" s="875" t="s">
+        <v>941</v>
+      </c>
+      <c r="N24" s="850" t="s">
+        <v>919</v>
+      </c>
+      <c r="O24" s="825" t="s">
+        <v>898</v>
+      </c>
+      <c r="P24" s="800" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q24" s="775" t="s">
+        <v>356</v>
+      </c>
+      <c r="R24" s="750" t="s">
+        <v>833</v>
+      </c>
+      <c r="S24" s="725" t="s">
+        <v>810</v>
+      </c>
+      <c r="T24" s="700" t="s">
+        <v>785</v>
+      </c>
+      <c r="U24" s="675" t="s">
+        <v>762</v>
+      </c>
+      <c r="V24" s="650" t="s">
+        <v>738</v>
+      </c>
+      <c r="W24" s="625" t="s">
+        <v>715</v>
+      </c>
+      <c r="X24" s="600" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y24" s="575" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z24" s="550" t="s">
+        <v>645</v>
+      </c>
+      <c r="AA24" s="525" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB24" s="500" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC24" s="475" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD24" s="450" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE24" s="425" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF24" s="400" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG24" s="375" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH24" s="350" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI24" s="325" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ24" s="300" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK24" s="275" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL24" s="250" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM24" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN24" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO24" s="175" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP24" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ24" s="128" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="1151" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C25" s="1126" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D25" s="1101" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E25" s="1076" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F25" s="1051" t="s">
+        <v>748</v>
+      </c>
+      <c r="G25" s="1026" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H25" s="1001" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I25" s="976" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J25" s="951" t="s">
+        <v>993</v>
+      </c>
+      <c r="K25" s="926" t="s">
+        <v>968</v>
+      </c>
+      <c r="L25" s="901" t="s">
+        <v>965</v>
+      </c>
+      <c r="M25" s="876" t="s">
+        <v>942</v>
+      </c>
+      <c r="N25" s="851" t="s">
+        <v>920</v>
+      </c>
+      <c r="O25" s="826" t="s">
+        <v>899</v>
+      </c>
+      <c r="P25" s="801" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q25" s="776" t="s">
+        <v>855</v>
+      </c>
+      <c r="R25" s="751" t="s">
+        <v>834</v>
+      </c>
+      <c r="S25" s="726" t="s">
+        <v>811</v>
+      </c>
+      <c r="T25" s="701" t="s">
+        <v>786</v>
+      </c>
+      <c r="U25" s="676" t="s">
+        <v>763</v>
+      </c>
+      <c r="V25" s="651" t="s">
+        <v>739</v>
+      </c>
+      <c r="W25" s="626" t="s">
+        <v>716</v>
+      </c>
+      <c r="X25" s="601" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y25" s="576" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z25" s="551" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA25" s="526" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB25" s="501" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC25" s="476" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD25" s="451" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE25" s="426" t="s">
+        <v>532</v>
+      </c>
+      <c r="AF25" s="401" t="s">
+        <v>507</v>
+      </c>
+      <c r="AG25" s="376" t="s">
+        <v>485</v>
+      </c>
+      <c r="AH25" s="351" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI25" s="326" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ25" s="301" t="s">
+        <v>412</v>
+      </c>
+      <c r="AK25" s="276" t="s">
+        <v>388</v>
+      </c>
+      <c r="AL25" s="251" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM25" s="226" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN25" s="201" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO25" s="176" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP25" s="152" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ25" s="128" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="1152" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C26" s="1127" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D26" s="1102" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E26" s="1077" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F26" s="1052" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G26" s="1027" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H26" s="1002" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I26" s="977" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J26" s="952" t="s">
+        <v>994</v>
+      </c>
+      <c r="K26" s="927" t="s">
+        <v>969</v>
+      </c>
+      <c r="L26" s="902" t="s">
+        <v>966</v>
+      </c>
+      <c r="M26" s="877" t="s">
+        <v>943</v>
+      </c>
+      <c r="N26" s="852" t="s">
+        <v>921</v>
+      </c>
+      <c r="O26" s="827" t="s">
+        <v>900</v>
+      </c>
+      <c r="P26" s="802" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q26" s="777" t="s">
+        <v>856</v>
+      </c>
+      <c r="R26" s="752" t="s">
+        <v>835</v>
+      </c>
+      <c r="S26" s="727" t="s">
+        <v>812</v>
+      </c>
+      <c r="T26" s="702" t="s">
+        <v>787</v>
+      </c>
+      <c r="U26" s="677" t="s">
+        <v>764</v>
+      </c>
+      <c r="V26" s="652" t="s">
+        <v>740</v>
+      </c>
+      <c r="W26" s="627" t="s">
+        <v>717</v>
+      </c>
+      <c r="X26" s="602" t="s">
+        <v>693</v>
+      </c>
+      <c r="Y26" s="577" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z26" s="552" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA26" s="527" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB26" s="502" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC26" s="477" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD26" s="452" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE26" s="427" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF26" s="402" t="s">
+        <v>508</v>
+      </c>
+      <c r="AG26" s="377" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH26" s="352" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI26" s="327" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ26" s="302" t="s">
+        <v>413</v>
+      </c>
+      <c r="AK26" s="277" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL26" s="252" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM26" s="227" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN26" s="202" t="s">
+        <v>318</v>
+      </c>
+      <c r="AO26" s="177" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP26" s="151" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>